--- a/dataanalysis/data/predictions/1600/08261531_1539.xlsx
+++ b/dataanalysis/data/predictions/1600/08261531_1539.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="166">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-26</t>
   </si>
   <si>
@@ -509,12 +512,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -872,13 +869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AI85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,19 +978,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-1.97</v>
@@ -1011,7 +1011,7 @@
         <v>92400.28</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -1052,8 +1052,23 @@
       <c r="W2">
         <v>-0.7</v>
       </c>
+      <c r="X2">
+        <v>-0.17</v>
+      </c>
+      <c r="Y2">
+        <v>12.37</v>
+      </c>
+      <c r="Z2">
+        <v>3.34</v>
+      </c>
       <c r="AC2" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1061,22 +1076,25 @@
       <c r="AG2">
         <v>2.257025957107544</v>
       </c>
-      <c r="AH2" t="s">
-        <v>165</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0.92</v>
@@ -1094,7 +1112,7 @@
         <v>653766.96</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1135,8 +1153,23 @@
       <c r="W3">
         <v>-0.17</v>
       </c>
+      <c r="X3">
+        <v>-0.46</v>
+      </c>
+      <c r="Y3">
+        <v>420</v>
+      </c>
+      <c r="Z3">
+        <v>4.48</v>
+      </c>
       <c r="AC3" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1144,22 +1177,25 @@
       <c r="AG3">
         <v>2.923934459686279</v>
       </c>
-      <c r="AH3" t="s">
-        <v>165</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300037</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-4.52</v>
@@ -1177,7 +1213,7 @@
         <v>160399.91</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1218,8 +1254,23 @@
       <c r="W4">
         <v>-0.15</v>
       </c>
+      <c r="X4">
+        <v>-1.7</v>
+      </c>
+      <c r="Y4">
+        <v>47.08</v>
+      </c>
+      <c r="Z4">
+        <v>4.07</v>
+      </c>
       <c r="AC4" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1227,22 +1278,25 @@
       <c r="AG4">
         <v>52.47739410400391</v>
       </c>
-      <c r="AH4" t="s">
-        <v>165</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300047</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.77</v>
@@ -1260,7 +1314,7 @@
         <v>299287.88</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1301,8 +1355,23 @@
       <c r="W5">
         <v>-0.86</v>
       </c>
+      <c r="X5">
+        <v>-6.33</v>
+      </c>
+      <c r="Y5">
+        <v>20.09</v>
+      </c>
+      <c r="Z5">
+        <v>1.72</v>
+      </c>
       <c r="AC5" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1310,22 +1379,25 @@
       <c r="AG5">
         <v>112.3935928344727</v>
       </c>
-      <c r="AH5" t="s">
-        <v>165</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300057</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3.64</v>
@@ -1343,7 +1415,7 @@
         <v>103824.45</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1384,8 +1456,23 @@
       <c r="W6">
         <v>0.01</v>
       </c>
+      <c r="X6">
+        <v>-5.71</v>
+      </c>
+      <c r="Y6">
+        <v>6.95</v>
+      </c>
+      <c r="Z6">
+        <v>1.76</v>
+      </c>
       <c r="AC6" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1393,22 +1480,25 @@
       <c r="AG6">
         <v>10.96436309814453</v>
       </c>
-      <c r="AH6" t="s">
-        <v>165</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300066</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-6.14</v>
@@ -1426,7 +1516,7 @@
         <v>138229.04</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K7">
         <v>14</v>
@@ -1467,8 +1557,23 @@
       <c r="W7">
         <v>-0.92</v>
       </c>
+      <c r="X7">
+        <v>2.78</v>
+      </c>
+      <c r="Y7">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>4.36</v>
+      </c>
       <c r="AC7" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1476,22 +1581,25 @@
       <c r="AG7">
         <v>0.8379689455032349</v>
       </c>
-      <c r="AH7" t="s">
-        <v>165</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300077</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-1.96</v>
@@ -1509,7 +1617,7 @@
         <v>251230.59</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1550,8 +1658,23 @@
       <c r="W8">
         <v>-1.99</v>
       </c>
+      <c r="X8">
+        <v>-4.13</v>
+      </c>
+      <c r="Y8">
+        <v>29.35</v>
+      </c>
+      <c r="Z8">
+        <v>2.73</v>
+      </c>
       <c r="AC8" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1559,22 +1682,25 @@
       <c r="AG8">
         <v>6.206263542175293</v>
       </c>
-      <c r="AH8" t="s">
-        <v>165</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300085</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-1.43</v>
@@ -1592,7 +1718,7 @@
         <v>455743.44</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1633,8 +1759,23 @@
       <c r="W9">
         <v>-0.84</v>
       </c>
+      <c r="X9">
+        <v>-3.76</v>
+      </c>
+      <c r="Y9">
+        <v>55.07</v>
+      </c>
+      <c r="Z9">
+        <v>1.47</v>
+      </c>
       <c r="AC9" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1642,22 +1783,25 @@
       <c r="AG9">
         <v>5.049511909484863</v>
       </c>
-      <c r="AH9" t="s">
-        <v>165</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300113</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-0.42</v>
@@ -1675,7 +1819,7 @@
         <v>210901.29</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1716,8 +1860,23 @@
       <c r="W10">
         <v>-0.65</v>
       </c>
+      <c r="X10">
+        <v>-3.81</v>
+      </c>
+      <c r="Y10">
+        <v>29.33</v>
+      </c>
+      <c r="Z10">
+        <v>2.62</v>
+      </c>
       <c r="AC10" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1725,22 +1884,25 @@
       <c r="AG10">
         <v>6.627661228179932</v>
       </c>
-      <c r="AH10" t="s">
-        <v>165</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300153</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-1.36</v>
@@ -1758,7 +1920,7 @@
         <v>154682.2</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1799,8 +1961,23 @@
       <c r="W11">
         <v>-1.11</v>
       </c>
+      <c r="X11">
+        <v>-2.31</v>
+      </c>
+      <c r="Y11">
+        <v>47.9</v>
+      </c>
+      <c r="Z11">
+        <v>3.3</v>
+      </c>
       <c r="AC11" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1808,22 +1985,25 @@
       <c r="AG11">
         <v>3.888113260269165</v>
       </c>
-      <c r="AH11" t="s">
-        <v>165</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300158</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>5.12</v>
@@ -1841,7 +2021,7 @@
         <v>167032.59</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K12">
         <v>25</v>
@@ -1882,8 +2062,23 @@
       <c r="W12">
         <v>-0.65</v>
       </c>
+      <c r="X12">
+        <v>-6.77</v>
+      </c>
+      <c r="Y12">
+        <v>9.57</v>
+      </c>
+      <c r="Z12">
+        <v>1.27</v>
+      </c>
       <c r="AC12" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1891,22 +2086,25 @@
       <c r="AG12">
         <v>7.030413150787354</v>
       </c>
-      <c r="AH12" t="s">
-        <v>165</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300192</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>1.58</v>
@@ -1924,7 +2122,7 @@
         <v>371015.01</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1965,8 +2163,23 @@
       <c r="W13">
         <v>-6.59</v>
       </c>
+      <c r="X13">
+        <v>-10.33</v>
+      </c>
+      <c r="Y13">
+        <v>25.59</v>
+      </c>
+      <c r="Z13">
+        <v>-2.77</v>
+      </c>
       <c r="AC13" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1974,22 +2187,25 @@
       <c r="AG13">
         <v>32.84977340698242</v>
       </c>
-      <c r="AH13" t="s">
-        <v>165</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300290</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-3.23</v>
@@ -2007,7 +2223,7 @@
         <v>110745.24</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -2048,8 +2264,23 @@
       <c r="W14">
         <v>-0.75</v>
       </c>
+      <c r="X14">
+        <v>-3.78</v>
+      </c>
+      <c r="Y14">
+        <v>25.85</v>
+      </c>
+      <c r="Z14">
+        <v>3.94</v>
+      </c>
       <c r="AC14" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2057,22 +2288,25 @@
       <c r="AG14">
         <v>2.07602858543396</v>
       </c>
-      <c r="AH14" t="s">
-        <v>165</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300308</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.88</v>
@@ -2090,7 +2324,7 @@
         <v>1140294.76</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K15">
         <v>31</v>
@@ -2131,8 +2365,23 @@
       <c r="W15">
         <v>-0.11</v>
       </c>
+      <c r="X15">
+        <v>3.54</v>
+      </c>
+      <c r="Y15">
+        <v>345.9</v>
+      </c>
+      <c r="Z15">
+        <v>10.16</v>
+      </c>
       <c r="AC15" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2140,22 +2389,25 @@
       <c r="AG15">
         <v>-2.5182204246521</v>
       </c>
-      <c r="AH15" t="s">
-        <v>165</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300322</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>3.65</v>
@@ -2173,7 +2425,7 @@
         <v>337687.83</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K16">
         <v>22</v>
@@ -2214,8 +2466,23 @@
       <c r="W16">
         <v>0.9399999999999999</v>
       </c>
+      <c r="X16">
+        <v>-5.33</v>
+      </c>
+      <c r="Y16">
+        <v>28.45</v>
+      </c>
+      <c r="Z16">
+        <v>1.1</v>
+      </c>
       <c r="AC16" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2223,22 +2490,25 @@
       <c r="AG16">
         <v>0.1047453284263611</v>
       </c>
-      <c r="AH16" t="s">
-        <v>165</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300323</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.31</v>
@@ -2256,7 +2526,7 @@
         <v>86570.03999999999</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2297,8 +2567,23 @@
       <c r="W17">
         <v>0.06</v>
       </c>
+      <c r="X17">
+        <v>-4.49</v>
+      </c>
+      <c r="Y17">
+        <v>10.09</v>
+      </c>
+      <c r="Z17">
+        <v>2.96</v>
+      </c>
       <c r="AC17" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2306,22 +2591,25 @@
       <c r="AG17">
         <v>4.058965682983398</v>
       </c>
-      <c r="AH17" t="s">
-        <v>165</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300328</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-1.93</v>
@@ -2339,7 +2627,7 @@
         <v>269598.85</v>
       </c>
       <c r="J18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -2380,8 +2668,23 @@
       <c r="W18">
         <v>-0.27</v>
       </c>
+      <c r="X18">
+        <v>-5.74</v>
+      </c>
+      <c r="Y18">
+        <v>18.97</v>
+      </c>
+      <c r="Z18">
+        <v>3.77</v>
+      </c>
       <c r="AC18" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2389,22 +2692,25 @@
       <c r="AG18">
         <v>15.50412559509277</v>
       </c>
-      <c r="AH18" t="s">
-        <v>165</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300339</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>4.24</v>
@@ -2422,7 +2728,7 @@
         <v>1005812.43</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2463,8 +2769,23 @@
       <c r="W19">
         <v>-0.05</v>
       </c>
+      <c r="X19">
+        <v>-0.79</v>
+      </c>
+      <c r="Y19">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="Z19">
+        <v>4.5</v>
+      </c>
       <c r="AC19" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2472,22 +2793,25 @@
       <c r="AG19">
         <v>49.68349838256836</v>
       </c>
-      <c r="AH19" t="s">
-        <v>165</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300364</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>4.83</v>
@@ -2505,7 +2829,7 @@
         <v>692460.39</v>
       </c>
       <c r="J20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2546,8 +2870,23 @@
       <c r="W20">
         <v>-0.96</v>
       </c>
+      <c r="X20">
+        <v>-9.1</v>
+      </c>
+      <c r="Y20">
+        <v>35.9</v>
+      </c>
+      <c r="Z20">
+        <v>0.87</v>
+      </c>
       <c r="AC20" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2555,22 +2894,25 @@
       <c r="AG20">
         <v>12.0508394241333</v>
       </c>
-      <c r="AH20" t="s">
-        <v>165</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300378</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>3.46</v>
@@ -2588,7 +2930,7 @@
         <v>188730.23</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -2629,8 +2971,23 @@
       <c r="W21">
         <v>0.93</v>
       </c>
+      <c r="X21">
+        <v>0.52</v>
+      </c>
+      <c r="Y21">
+        <v>65</v>
+      </c>
+      <c r="Z21">
+        <v>6.42</v>
+      </c>
       <c r="AC21" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2638,22 +2995,25 @@
       <c r="AG21">
         <v>2.925052642822266</v>
       </c>
-      <c r="AH21" t="s">
-        <v>165</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300394</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>11.93</v>
@@ -2671,7 +3031,7 @@
         <v>1007498.85</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22">
         <v>21</v>
@@ -2712,8 +3072,23 @@
       <c r="W22">
         <v>-0.3</v>
       </c>
+      <c r="X22">
+        <v>3.61</v>
+      </c>
+      <c r="Y22">
+        <v>157.96</v>
+      </c>
+      <c r="Z22">
+        <v>9.1</v>
+      </c>
       <c r="AC22" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2721,22 +3096,25 @@
       <c r="AG22">
         <v>0.6561424136161804</v>
       </c>
-      <c r="AH22" t="s">
-        <v>165</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300433</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>4.12</v>
@@ -2754,7 +3132,7 @@
         <v>504696.06</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2795,8 +3173,23 @@
       <c r="W23">
         <v>0.01</v>
       </c>
+      <c r="X23">
+        <v>3.63</v>
+      </c>
+      <c r="Y23">
+        <v>33</v>
+      </c>
+      <c r="Z23">
+        <v>8.91</v>
+      </c>
       <c r="AC23" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2804,22 +3197,25 @@
       <c r="AG23">
         <v>9.683432579040527</v>
       </c>
-      <c r="AH23" t="s">
-        <v>165</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300469</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>6.41</v>
@@ -2837,7 +3233,7 @@
         <v>89417.57000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2878,8 +3274,23 @@
       <c r="W24">
         <v>0.39</v>
       </c>
+      <c r="X24">
+        <v>-3.16</v>
+      </c>
+      <c r="Y24">
+        <v>54.8</v>
+      </c>
+      <c r="Z24">
+        <v>2.45</v>
+      </c>
       <c r="AC24" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2887,22 +3298,25 @@
       <c r="AG24">
         <v>0.9171277284622192</v>
       </c>
-      <c r="AH24" t="s">
-        <v>165</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300480</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>2.05</v>
@@ -2920,7 +3334,7 @@
         <v>64183.87</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2961,8 +3375,23 @@
       <c r="W25">
         <v>0.73</v>
       </c>
+      <c r="X25">
+        <v>-7.12</v>
+      </c>
+      <c r="Y25">
+        <v>18.78</v>
+      </c>
+      <c r="Z25">
+        <v>-0.95</v>
+      </c>
       <c r="AC25" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2970,22 +3399,25 @@
       <c r="AG25">
         <v>-0.6631709337234497</v>
       </c>
-      <c r="AH25" t="s">
-        <v>165</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300491</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>1.67</v>
@@ -3003,7 +3435,7 @@
         <v>73326.66</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -3044,8 +3476,23 @@
       <c r="W26">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X26">
+        <v>1.74</v>
+      </c>
+      <c r="Y26">
+        <v>32.15</v>
+      </c>
+      <c r="Z26">
+        <v>7.53</v>
+      </c>
       <c r="AC26" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3053,22 +3500,25 @@
       <c r="AG26">
         <v>4.583066940307617</v>
       </c>
-      <c r="AH26" t="s">
-        <v>165</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300499</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-4.25</v>
@@ -3086,7 +3536,7 @@
         <v>259238.68</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K27">
         <v>10</v>
@@ -3127,8 +3577,23 @@
       <c r="W27">
         <v>-1.76</v>
       </c>
+      <c r="X27">
+        <v>-0.63</v>
+      </c>
+      <c r="Y27">
+        <v>33.76</v>
+      </c>
+      <c r="Z27">
+        <v>5.5</v>
+      </c>
       <c r="AC27" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3136,22 +3601,25 @@
       <c r="AG27">
         <v>2.17539644241333</v>
       </c>
-      <c r="AH27" t="s">
-        <v>165</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300502</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-4.75</v>
@@ -3169,7 +3637,7 @@
         <v>1422651.49</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K28">
         <v>45</v>
@@ -3210,8 +3678,23 @@
       <c r="W28">
         <v>-0.52</v>
       </c>
+      <c r="X28">
+        <v>9.32</v>
+      </c>
+      <c r="Y28">
+        <v>324.42</v>
+      </c>
+      <c r="Z28">
+        <v>15.03</v>
+      </c>
       <c r="AC28" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3219,22 +3702,25 @@
       <c r="AG28">
         <v>-0.2799830734729767</v>
       </c>
-      <c r="AH28" t="s">
-        <v>165</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300503</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-6.77</v>
@@ -3252,7 +3738,7 @@
         <v>183108.19</v>
       </c>
       <c r="J29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3293,8 +3779,23 @@
       <c r="W29">
         <v>-2.78</v>
       </c>
+      <c r="X29">
+        <v>-2.88</v>
+      </c>
+      <c r="Y29">
+        <v>31.96</v>
+      </c>
+      <c r="Z29">
+        <v>2.21</v>
+      </c>
       <c r="AC29" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3302,22 +3803,25 @@
       <c r="AG29">
         <v>2.642349720001221</v>
       </c>
-      <c r="AH29" t="s">
-        <v>165</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300533</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>5.06</v>
@@ -3335,7 +3839,7 @@
         <v>136677.88</v>
       </c>
       <c r="J30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3376,8 +3880,23 @@
       <c r="W30">
         <v>-0.29</v>
       </c>
+      <c r="X30">
+        <v>-4.34</v>
+      </c>
+      <c r="Y30">
+        <v>43.54</v>
+      </c>
+      <c r="Z30">
+        <v>-0.11</v>
+      </c>
       <c r="AC30" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3385,22 +3904,25 @@
       <c r="AG30">
         <v>2.701375007629395</v>
       </c>
-      <c r="AH30" t="s">
-        <v>165</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300548</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>2.39</v>
@@ -3418,7 +3940,7 @@
         <v>353372.83</v>
       </c>
       <c r="J31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31">
         <v>31</v>
@@ -3459,8 +3981,23 @@
       <c r="W31">
         <v>0.19</v>
       </c>
+      <c r="X31">
+        <v>12.49</v>
+      </c>
+      <c r="Y31">
+        <v>139.99</v>
+      </c>
+      <c r="Z31">
+        <v>16.93</v>
+      </c>
       <c r="AC31" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3468,22 +4005,25 @@
       <c r="AG31">
         <v>8.989516258239746</v>
       </c>
-      <c r="AH31" t="s">
-        <v>165</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300584</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-1.75</v>
@@ -3501,7 +4041,7 @@
         <v>73647.53999999999</v>
       </c>
       <c r="J32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K32">
         <v>11</v>
@@ -3542,8 +4082,23 @@
       <c r="W32">
         <v>-0.5</v>
       </c>
+      <c r="X32">
+        <v>-1.38</v>
+      </c>
+      <c r="Y32">
+        <v>60.28</v>
+      </c>
+      <c r="Z32">
+        <v>4.07</v>
+      </c>
       <c r="AC32" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3551,22 +4106,25 @@
       <c r="AG32">
         <v>-0.7241257429122925</v>
       </c>
-      <c r="AH32" t="s">
-        <v>165</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300598</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>1.09</v>
@@ -3584,7 +4142,7 @@
         <v>203984.96</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3625,8 +4183,23 @@
       <c r="W33">
         <v>-0.34</v>
       </c>
+      <c r="X33">
+        <v>-5.68</v>
+      </c>
+      <c r="Y33">
+        <v>59.2</v>
+      </c>
+      <c r="Z33">
+        <v>-0.54</v>
+      </c>
       <c r="AC33" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3634,22 +4207,25 @@
       <c r="AG33">
         <v>4.691240310668945</v>
       </c>
-      <c r="AH33" t="s">
-        <v>165</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300620</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-3.52</v>
@@ -3667,7 +4243,7 @@
         <v>223276.01</v>
       </c>
       <c r="J34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K34">
         <v>11</v>
@@ -3708,8 +4284,23 @@
       <c r="W34">
         <v>-1.45</v>
       </c>
+      <c r="X34">
+        <v>1.15</v>
+      </c>
+      <c r="Y34">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="Z34">
+        <v>5.94</v>
+      </c>
       <c r="AC34" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3717,22 +4308,25 @@
       <c r="AG34">
         <v>4.378605842590332</v>
       </c>
-      <c r="AH34" t="s">
-        <v>165</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300642</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>8.869999999999999</v>
@@ -3750,7 +4344,7 @@
         <v>99488.39</v>
       </c>
       <c r="J35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -3791,8 +4385,23 @@
       <c r="W35">
         <v>1.17</v>
       </c>
+      <c r="X35">
+        <v>-5.53</v>
+      </c>
+      <c r="Y35">
+        <v>31.8</v>
+      </c>
+      <c r="Z35">
+        <v>1.6</v>
+      </c>
       <c r="AC35" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3800,22 +4409,25 @@
       <c r="AG35">
         <v>1.831828355789185</v>
       </c>
-      <c r="AH35" t="s">
-        <v>165</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300686</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>8.109999999999999</v>
@@ -3833,7 +4445,7 @@
         <v>84035.28999999999</v>
       </c>
       <c r="J36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -3874,8 +4486,23 @@
       <c r="W36">
         <v>-0.02</v>
       </c>
+      <c r="X36">
+        <v>-4.25</v>
+      </c>
+      <c r="Y36">
+        <v>13.88</v>
+      </c>
+      <c r="Z36">
+        <v>-1.77</v>
+      </c>
       <c r="AC36" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3883,22 +4510,25 @@
       <c r="AG36">
         <v>0.7342790961265564</v>
       </c>
-      <c r="AH36" t="s">
-        <v>165</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300709</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>5.72</v>
@@ -3916,7 +4546,7 @@
         <v>134708.53</v>
       </c>
       <c r="J37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3957,8 +4587,23 @@
       <c r="W37">
         <v>0.48</v>
       </c>
+      <c r="X37">
+        <v>-3.06</v>
+      </c>
+      <c r="Y37">
+        <v>54.25</v>
+      </c>
+      <c r="Z37">
+        <v>1.95</v>
+      </c>
       <c r="AC37" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3966,22 +4611,25 @@
       <c r="AG37">
         <v>10.91083526611328</v>
       </c>
-      <c r="AH37" t="s">
-        <v>165</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300724</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>3.22</v>
@@ -3999,7 +4647,7 @@
         <v>292311.86</v>
       </c>
       <c r="J38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -4040,8 +4688,23 @@
       <c r="W38">
         <v>0.13</v>
       </c>
+      <c r="X38">
+        <v>-2.87</v>
+      </c>
+      <c r="Y38">
+        <v>87.97</v>
+      </c>
+      <c r="Z38">
+        <v>1.38</v>
+      </c>
       <c r="AC38" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4049,22 +4712,25 @@
       <c r="AG38">
         <v>3.600274085998535</v>
       </c>
-      <c r="AH38" t="s">
-        <v>165</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300730</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-0.67</v>
@@ -4082,7 +4748,7 @@
         <v>105086.35</v>
       </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K39">
         <v>7</v>
@@ -4123,8 +4789,23 @@
       <c r="W39">
         <v>-0.53</v>
       </c>
+      <c r="X39">
+        <v>-6.66</v>
+      </c>
+      <c r="Y39">
+        <v>22.01</v>
+      </c>
+      <c r="Z39">
+        <v>-0.99</v>
+      </c>
       <c r="AC39" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4132,22 +4813,25 @@
       <c r="AG39">
         <v>0.7453154921531677</v>
       </c>
-      <c r="AH39" t="s">
-        <v>165</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300740</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>10.34</v>
@@ -4165,7 +4849,7 @@
         <v>118966.14</v>
       </c>
       <c r="J40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -4206,8 +4890,23 @@
       <c r="W40">
         <v>0.19</v>
       </c>
+      <c r="X40">
+        <v>-3.07</v>
+      </c>
+      <c r="Y40">
+        <v>24.14</v>
+      </c>
+      <c r="Z40">
+        <v>1.43</v>
+      </c>
       <c r="AC40" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4215,22 +4914,25 @@
       <c r="AG40">
         <v>0.2249196618795395</v>
       </c>
-      <c r="AH40" t="s">
-        <v>165</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300748</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>2.86</v>
@@ -4248,7 +4950,7 @@
         <v>717696.15</v>
       </c>
       <c r="J41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K41">
         <v>33</v>
@@ -4289,8 +4991,23 @@
       <c r="W41">
         <v>-1.36</v>
       </c>
+      <c r="X41">
+        <v>6.63</v>
+      </c>
+      <c r="Y41">
+        <v>43.28</v>
+      </c>
+      <c r="Z41">
+        <v>15.72</v>
+      </c>
       <c r="AC41" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4298,22 +5015,25 @@
       <c r="AG41">
         <v>75.36781311035156</v>
       </c>
-      <c r="AH41" t="s">
-        <v>165</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300752</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-2.43</v>
@@ -4331,7 +5051,7 @@
         <v>55023.26</v>
       </c>
       <c r="J42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K42">
         <v>6</v>
@@ -4372,8 +5092,23 @@
       <c r="W42">
         <v>0.18</v>
       </c>
+      <c r="X42">
+        <v>-5.54</v>
+      </c>
+      <c r="Y42">
+        <v>26.75</v>
+      </c>
+      <c r="Z42">
+        <v>0.75</v>
+      </c>
       <c r="AC42" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4381,22 +5116,25 @@
       <c r="AG42">
         <v>-2.721328735351562</v>
       </c>
-      <c r="AH42" t="s">
-        <v>165</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300757</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-0.87</v>
@@ -4414,7 +5152,7 @@
         <v>387969.1</v>
       </c>
       <c r="J43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4455,8 +5193,23 @@
       <c r="W43">
         <v>-1.38</v>
       </c>
+      <c r="X43">
+        <v>-0.82</v>
+      </c>
+      <c r="Y43">
+        <v>279.55</v>
+      </c>
+      <c r="Z43">
+        <v>4.31</v>
+      </c>
       <c r="AC43" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4464,22 +5217,25 @@
       <c r="AG43">
         <v>41.13246154785156</v>
       </c>
-      <c r="AH43" t="s">
-        <v>165</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300767</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.4</v>
@@ -4497,7 +5253,7 @@
         <v>84107.87</v>
       </c>
       <c r="J44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K44">
         <v>7</v>
@@ -4538,8 +5294,23 @@
       <c r="W44">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X44">
+        <v>0.32</v>
+      </c>
+      <c r="Y44">
+        <v>26.58</v>
+      </c>
+      <c r="Z44">
+        <v>6.66</v>
+      </c>
       <c r="AC44" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4547,22 +5318,25 @@
       <c r="AG44">
         <v>0.05192029103636742</v>
       </c>
-      <c r="AH44" t="s">
-        <v>165</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300803</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>8.43</v>
@@ -4580,7 +5354,7 @@
         <v>1077377.43</v>
       </c>
       <c r="J45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K45">
         <v>11</v>
@@ -4621,8 +5395,23 @@
       <c r="W45">
         <v>0.19</v>
       </c>
+      <c r="X45">
+        <v>-4.29</v>
+      </c>
+      <c r="Y45">
+        <v>158</v>
+      </c>
+      <c r="Z45">
+        <v>-0.37</v>
+      </c>
       <c r="AC45" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4630,22 +5419,25 @@
       <c r="AG45">
         <v>5.605293750762939</v>
       </c>
-      <c r="AH45" t="s">
-        <v>165</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300806</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>1.89</v>
@@ -4663,7 +5455,7 @@
         <v>96645.59</v>
       </c>
       <c r="J46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K46">
         <v>8</v>
@@ -4704,8 +5496,23 @@
       <c r="W46">
         <v>1.52</v>
       </c>
+      <c r="X46">
+        <v>-3.91</v>
+      </c>
+      <c r="Y46">
+        <v>27.27</v>
+      </c>
+      <c r="Z46">
+        <v>5.66</v>
+      </c>
       <c r="AC46" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4713,22 +5520,25 @@
       <c r="AG46">
         <v>2.792522192001343</v>
       </c>
-      <c r="AH46" t="s">
-        <v>165</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300843</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-3.08</v>
@@ -4746,7 +5556,7 @@
         <v>91406.55</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K47">
         <v>8</v>
@@ -4787,8 +5597,23 @@
       <c r="W47">
         <v>-0.6</v>
       </c>
+      <c r="X47">
+        <v>4.81</v>
+      </c>
+      <c r="Y47">
+        <v>56.6</v>
+      </c>
+      <c r="Z47">
+        <v>7.2</v>
+      </c>
       <c r="AC47" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4796,22 +5621,25 @@
       <c r="AG47">
         <v>1.995523810386658</v>
       </c>
-      <c r="AH47" t="s">
-        <v>165</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300857</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-5.98</v>
@@ -4829,7 +5657,7 @@
         <v>288714.27</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -4870,8 +5698,23 @@
       <c r="W48">
         <v>-0.47</v>
       </c>
+      <c r="X48">
+        <v>-1.27</v>
+      </c>
+      <c r="Y48">
+        <v>104.87</v>
+      </c>
+      <c r="Z48">
+        <v>3.85</v>
+      </c>
       <c r="AC48" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4879,22 +5722,25 @@
       <c r="AG48">
         <v>1.858751058578491</v>
       </c>
-      <c r="AH48" t="s">
-        <v>165</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300870</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-5.35</v>
@@ -4912,7 +5758,7 @@
         <v>160452.6</v>
       </c>
       <c r="J49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K49">
         <v>10</v>
@@ -4953,8 +5799,23 @@
       <c r="W49">
         <v>-0.78</v>
       </c>
+      <c r="X49">
+        <v>4.85</v>
+      </c>
+      <c r="Y49">
+        <v>283</v>
+      </c>
+      <c r="Z49">
+        <v>13.25</v>
+      </c>
       <c r="AC49" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4962,22 +5823,25 @@
       <c r="AG49">
         <v>1.889699935913086</v>
       </c>
-      <c r="AH49" t="s">
-        <v>165</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300991</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-3</v>
@@ -4995,7 +5859,7 @@
         <v>66756.14999999999</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -5036,8 +5900,23 @@
       <c r="W50">
         <v>-0.46</v>
       </c>
+      <c r="X50">
+        <v>1.49</v>
+      </c>
+      <c r="Y50">
+        <v>44.77</v>
+      </c>
+      <c r="Z50">
+        <v>5.66</v>
+      </c>
       <c r="AC50" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5045,22 +5924,25 @@
       <c r="AG50">
         <v>2.225566148757935</v>
       </c>
-      <c r="AH50" t="s">
-        <v>165</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301008</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>4.89</v>
@@ -5078,7 +5960,7 @@
         <v>62948.01</v>
       </c>
       <c r="J51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5119,8 +6001,23 @@
       <c r="W51">
         <v>0.04</v>
       </c>
+      <c r="X51">
+        <v>2.6</v>
+      </c>
+      <c r="Y51">
+        <v>36.56</v>
+      </c>
+      <c r="Z51">
+        <v>12.98</v>
+      </c>
       <c r="AC51" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5128,22 +6025,25 @@
       <c r="AG51">
         <v>5.691295146942139</v>
       </c>
-      <c r="AH51" t="s">
-        <v>165</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301018</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-4</v>
@@ -5161,7 +6061,7 @@
         <v>101873.78</v>
       </c>
       <c r="J52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K52">
         <v>10</v>
@@ -5202,8 +6102,23 @@
       <c r="W52">
         <v>-0.23</v>
       </c>
+      <c r="X52">
+        <v>2.23</v>
+      </c>
+      <c r="Y52">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="Z52">
+        <v>8.92</v>
+      </c>
       <c r="AC52" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5211,22 +6126,25 @@
       <c r="AG52">
         <v>-37.08078002929688</v>
       </c>
-      <c r="AH52" t="s">
-        <v>165</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301052</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-3.1</v>
@@ -5244,7 +6162,7 @@
         <v>46703.03</v>
       </c>
       <c r="J53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -5285,8 +6203,23 @@
       <c r="W53">
         <v>-1.07</v>
       </c>
+      <c r="X53">
+        <v>-0.64</v>
+      </c>
+      <c r="Y53">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="Z53">
+        <v>0.86</v>
+      </c>
       <c r="AC53" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5294,22 +6227,25 @@
       <c r="AG53">
         <v>1.779764771461487</v>
       </c>
-      <c r="AH53" t="s">
-        <v>165</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301128</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-11.93</v>
@@ -5327,7 +6263,7 @@
         <v>180602.04</v>
       </c>
       <c r="J54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K54">
         <v>10</v>
@@ -5368,8 +6304,23 @@
       <c r="W54">
         <v>-2.96</v>
       </c>
+      <c r="X54">
+        <v>-2.01</v>
+      </c>
+      <c r="Y54">
+        <v>108.43</v>
+      </c>
+      <c r="Z54">
+        <v>4.36</v>
+      </c>
       <c r="AC54" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5377,22 +6328,25 @@
       <c r="AG54">
         <v>4.694253921508789</v>
       </c>
-      <c r="AH54" t="s">
-        <v>165</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301165</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-2.36</v>
@@ -5410,7 +6364,7 @@
         <v>147381.71</v>
       </c>
       <c r="J55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K55">
         <v>11</v>
@@ -5451,8 +6405,23 @@
       <c r="W55">
         <v>-1.35</v>
       </c>
+      <c r="X55">
+        <v>-0.27</v>
+      </c>
+      <c r="Y55">
+        <v>93.5</v>
+      </c>
+      <c r="Z55">
+        <v>5.14</v>
+      </c>
       <c r="AC55" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5460,22 +6429,25 @@
       <c r="AG55">
         <v>6.258607387542725</v>
       </c>
-      <c r="AH55" t="s">
-        <v>165</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301183</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>2.69</v>
@@ -5493,7 +6465,7 @@
         <v>84782.94</v>
       </c>
       <c r="J56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K56">
         <v>6</v>
@@ -5534,8 +6506,23 @@
       <c r="W56">
         <v>1.21</v>
       </c>
+      <c r="X56">
+        <v>20</v>
+      </c>
+      <c r="Y56">
+        <v>96.23</v>
+      </c>
+      <c r="Z56">
+        <v>20</v>
+      </c>
       <c r="AC56" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5543,22 +6530,25 @@
       <c r="AG56">
         <v>2.224333524703979</v>
       </c>
-      <c r="AH56" t="s">
-        <v>166</v>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301205</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>4.48</v>
@@ -5576,7 +6566,7 @@
         <v>123359.54</v>
       </c>
       <c r="J57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5617,8 +6607,23 @@
       <c r="W57">
         <v>1.05</v>
       </c>
+      <c r="X57">
+        <v>-7.73</v>
+      </c>
+      <c r="Y57">
+        <v>114.36</v>
+      </c>
+      <c r="Z57">
+        <v>-4.08</v>
+      </c>
       <c r="AC57" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5626,22 +6631,25 @@
       <c r="AG57">
         <v>-1.348832130432129</v>
       </c>
-      <c r="AH57" t="s">
-        <v>165</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301217</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-4.92</v>
@@ -5659,7 +6667,7 @@
         <v>182971.61</v>
       </c>
       <c r="J58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K58">
         <v>37</v>
@@ -5700,8 +6708,23 @@
       <c r="W58">
         <v>-0.61</v>
       </c>
+      <c r="X58">
+        <v>-0.77</v>
+      </c>
+      <c r="Y58">
+        <v>35.5</v>
+      </c>
+      <c r="Z58">
+        <v>4.87</v>
+      </c>
       <c r="AC58" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5709,22 +6732,25 @@
       <c r="AG58">
         <v>0.0959758535027504</v>
       </c>
-      <c r="AH58" t="s">
-        <v>165</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301357</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>2.37</v>
@@ -5742,7 +6768,7 @@
         <v>132097.72</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K59">
         <v>21</v>
@@ -5783,8 +6809,23 @@
       <c r="W59">
         <v>-1.12</v>
       </c>
+      <c r="X59">
+        <v>-6.97</v>
+      </c>
+      <c r="Y59">
+        <v>166.01</v>
+      </c>
+      <c r="Z59">
+        <v>-0.87</v>
+      </c>
       <c r="AC59" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5792,22 +6833,25 @@
       <c r="AG59">
         <v>173.9736328125</v>
       </c>
-      <c r="AH59" t="s">
-        <v>165</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301363</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-8</v>
@@ -5825,7 +6869,7 @@
         <v>88255.86</v>
       </c>
       <c r="J60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5866,8 +6910,23 @@
       <c r="W60">
         <v>-1.53</v>
       </c>
+      <c r="X60">
+        <v>4.45</v>
+      </c>
+      <c r="Y60">
+        <v>27.99</v>
+      </c>
+      <c r="Z60">
+        <v>14.29</v>
+      </c>
       <c r="AC60" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5875,22 +6934,25 @@
       <c r="AG60">
         <v>30.44570732116699</v>
       </c>
-      <c r="AH60" t="s">
-        <v>165</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301377</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>2.74</v>
@@ -5908,7 +6970,7 @@
         <v>67274.32000000001</v>
       </c>
       <c r="J61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K61">
         <v>12</v>
@@ -5949,8 +7011,23 @@
       <c r="W61">
         <v>-0.32</v>
       </c>
+      <c r="X61">
+        <v>-5.8</v>
+      </c>
+      <c r="Y61">
+        <v>75.81999999999999</v>
+      </c>
+      <c r="Z61">
+        <v>0.68</v>
+      </c>
       <c r="AC61" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5958,22 +7035,25 @@
       <c r="AG61">
         <v>24.9360466003418</v>
       </c>
-      <c r="AH61" t="s">
-        <v>165</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301413</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-3.3</v>
@@ -5991,7 +7071,7 @@
         <v>48711.63</v>
       </c>
       <c r="J62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -6032,8 +7112,23 @@
       <c r="W62">
         <v>0.15</v>
       </c>
+      <c r="X62">
+        <v>-0.68</v>
+      </c>
+      <c r="Y62">
+        <v>129</v>
+      </c>
+      <c r="Z62">
+        <v>6.23</v>
+      </c>
       <c r="AC62" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6041,22 +7136,25 @@
       <c r="AG62">
         <v>30.86581420898438</v>
       </c>
-      <c r="AH62" t="s">
-        <v>165</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301486</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-3.44</v>
@@ -6074,7 +7172,7 @@
         <v>76114.41</v>
       </c>
       <c r="J63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K63">
         <v>10</v>
@@ -6115,8 +7213,23 @@
       <c r="W63">
         <v>-0.61</v>
       </c>
+      <c r="X63">
+        <v>-2.44</v>
+      </c>
+      <c r="Y63">
+        <v>96</v>
+      </c>
+      <c r="Z63">
+        <v>2.41</v>
+      </c>
       <c r="AC63" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6124,22 +7237,25 @@
       <c r="AG63">
         <v>4.954423427581787</v>
       </c>
-      <c r="AH63" t="s">
-        <v>165</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301526</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>2.54</v>
@@ -6157,7 +7273,7 @@
         <v>178096.09</v>
       </c>
       <c r="J64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64">
         <v>14</v>
@@ -6198,8 +7314,23 @@
       <c r="W64">
         <v>-0.91</v>
       </c>
+      <c r="X64">
+        <v>-4.23</v>
+      </c>
+      <c r="Y64">
+        <v>7.05</v>
+      </c>
+      <c r="Z64">
+        <v>2.92</v>
+      </c>
       <c r="AC64" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>1</v>
@@ -6207,22 +7338,25 @@
       <c r="AG64">
         <v>5.318248271942139</v>
       </c>
-      <c r="AH64" t="s">
-        <v>165</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301617</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>1.37</v>
@@ -6240,7 +7374,7 @@
         <v>49422.83</v>
       </c>
       <c r="J65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6281,8 +7415,23 @@
       <c r="W65">
         <v>0.41</v>
       </c>
+      <c r="X65">
+        <v>10.91</v>
+      </c>
+      <c r="Y65">
+        <v>61.5</v>
+      </c>
+      <c r="Z65">
+        <v>13.91</v>
+      </c>
       <c r="AC65" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6290,22 +7439,25 @@
       <c r="AG65">
         <v>0.1106401309370995</v>
       </c>
-      <c r="AH65" t="s">
-        <v>165</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688007</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>9.73</v>
@@ -6323,7 +7475,7 @@
         <v>82341.91</v>
       </c>
       <c r="J66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -6364,8 +7516,23 @@
       <c r="W66">
         <v>1.03</v>
       </c>
+      <c r="X66">
+        <v>0.58</v>
+      </c>
+      <c r="Y66">
+        <v>24.16</v>
+      </c>
+      <c r="Z66">
+        <v>7.66</v>
+      </c>
       <c r="AC66" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6373,22 +7540,25 @@
       <c r="AG66">
         <v>6.269790649414062</v>
       </c>
-      <c r="AH66" t="s">
-        <v>165</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688041</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-6.13</v>
@@ -6406,7 +7576,7 @@
         <v>1157247.18</v>
       </c>
       <c r="J67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6447,8 +7617,23 @@
       <c r="W67">
         <v>-0.12</v>
       </c>
+      <c r="X67">
+        <v>-2.68</v>
+      </c>
+      <c r="Y67">
+        <v>202.61</v>
+      </c>
+      <c r="Z67">
+        <v>2.73</v>
+      </c>
       <c r="AC67" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6456,22 +7641,25 @@
       <c r="AG67">
         <v>137.2937774658203</v>
       </c>
-      <c r="AH67" t="s">
-        <v>165</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688062</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>4.14</v>
@@ -6489,7 +7677,7 @@
         <v>80881.5</v>
       </c>
       <c r="J68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6530,8 +7718,23 @@
       <c r="W68">
         <v>-0.16</v>
       </c>
+      <c r="X68">
+        <v>6.07</v>
+      </c>
+      <c r="Y68">
+        <v>49.02</v>
+      </c>
+      <c r="Z68">
+        <v>15.34</v>
+      </c>
       <c r="AC68" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6539,22 +7742,25 @@
       <c r="AG68">
         <v>9.24147891998291</v>
       </c>
-      <c r="AH68" t="s">
-        <v>165</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688066</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>14.45</v>
@@ -6572,7 +7778,7 @@
         <v>205561.06</v>
       </c>
       <c r="J69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6613,8 +7819,23 @@
       <c r="W69">
         <v>-1.71</v>
       </c>
+      <c r="X69">
+        <v>-6.67</v>
+      </c>
+      <c r="Y69">
+        <v>37.3</v>
+      </c>
+      <c r="Z69">
+        <v>1.91</v>
+      </c>
       <c r="AC69" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6622,22 +7843,25 @@
       <c r="AG69">
         <v>13.61410236358643</v>
       </c>
-      <c r="AH69" t="s">
-        <v>165</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688098</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-8.41</v>
@@ -6655,7 +7879,7 @@
         <v>43268.74</v>
       </c>
       <c r="J70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -6696,8 +7920,23 @@
       <c r="W70">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="X70">
+        <v>-2.56</v>
+      </c>
+      <c r="Y70">
+        <v>13.79</v>
+      </c>
+      <c r="Z70">
+        <v>3.84</v>
+      </c>
       <c r="AC70" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6705,22 +7944,25 @@
       <c r="AG70">
         <v>9.29793643951416</v>
       </c>
-      <c r="AH70" t="s">
-        <v>165</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688110</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>1.03</v>
@@ -6738,7 +7980,7 @@
         <v>360374.73</v>
       </c>
       <c r="J71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K71">
         <v>3</v>
@@ -6779,8 +8021,23 @@
       <c r="W71">
         <v>-0.16</v>
       </c>
+      <c r="X71">
+        <v>1.33</v>
+      </c>
+      <c r="Y71">
+        <v>104.3</v>
+      </c>
+      <c r="Z71">
+        <v>4.28</v>
+      </c>
       <c r="AC71" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6788,22 +8045,25 @@
       <c r="AG71">
         <v>0.08541066199541092</v>
       </c>
-      <c r="AH71" t="s">
-        <v>165</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688146</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -6821,7 +8081,7 @@
         <v>44530.28</v>
       </c>
       <c r="J72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K72">
         <v>10</v>
@@ -6862,8 +8122,23 @@
       <c r="W72">
         <v>-0.24</v>
       </c>
+      <c r="X72">
+        <v>-0.85</v>
+      </c>
+      <c r="Y72">
+        <v>44.56</v>
+      </c>
+      <c r="Z72">
+        <v>5.19</v>
+      </c>
       <c r="AC72" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6871,22 +8146,25 @@
       <c r="AG72">
         <v>1.859346270561218</v>
       </c>
-      <c r="AH72" t="s">
-        <v>165</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688167</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-4.96</v>
@@ -6904,7 +8182,7 @@
         <v>76689.84</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K73">
         <v>15</v>
@@ -6945,8 +8223,23 @@
       <c r="W73">
         <v>-0.39</v>
       </c>
+      <c r="X73">
+        <v>-6.29</v>
+      </c>
+      <c r="Y73">
+        <v>134.88</v>
+      </c>
+      <c r="Z73">
+        <v>1.53</v>
+      </c>
       <c r="AC73" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6954,22 +8247,25 @@
       <c r="AG73">
         <v>1.772682189941406</v>
       </c>
-      <c r="AH73" t="s">
-        <v>165</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688205</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-4.54</v>
@@ -6987,7 +8283,7 @@
         <v>173073.15</v>
       </c>
       <c r="J74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K74">
         <v>3</v>
@@ -7028,8 +8324,23 @@
       <c r="W74">
         <v>-0.58</v>
       </c>
+      <c r="X74">
+        <v>6.27</v>
+      </c>
+      <c r="Y74">
+        <v>108.78</v>
+      </c>
+      <c r="Z74">
+        <v>14.45</v>
+      </c>
       <c r="AC74" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7037,22 +8348,25 @@
       <c r="AG74">
         <v>1.687651634216309</v>
       </c>
-      <c r="AH74" t="s">
-        <v>165</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688256</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-4.04</v>
@@ -7070,7 +8384,7 @@
         <v>1564316.57</v>
       </c>
       <c r="J75" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7111,8 +8425,23 @@
       <c r="W75">
         <v>0.02</v>
       </c>
+      <c r="X75">
+        <v>3.24</v>
+      </c>
+      <c r="Y75">
+        <v>1464.98</v>
+      </c>
+      <c r="Z75">
+        <v>10.23</v>
+      </c>
       <c r="AC75" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>1</v>
@@ -7120,22 +8449,25 @@
       <c r="AG75">
         <v>3.747730731964111</v>
       </c>
-      <c r="AH75" t="s">
-        <v>166</v>
+      <c r="AH75">
+        <v>1</v>
+      </c>
+      <c r="AI75">
+        <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688313</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>-1.34</v>
@@ -7153,7 +8485,7 @@
         <v>261540.17</v>
       </c>
       <c r="J76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K76">
         <v>11</v>
@@ -7194,8 +8526,23 @@
       <c r="W76">
         <v>-0.6</v>
       </c>
+      <c r="X76">
+        <v>14.93</v>
+      </c>
+      <c r="Y76">
+        <v>84.58</v>
+      </c>
+      <c r="Z76">
+        <v>20.01</v>
+      </c>
       <c r="AC76" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7203,22 +8550,25 @@
       <c r="AG76">
         <v>-1.111628651618958</v>
       </c>
-      <c r="AH76" t="s">
-        <v>165</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688343</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-6.71</v>
@@ -7236,7 +8586,7 @@
         <v>312706.02</v>
       </c>
       <c r="J77" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7277,8 +8627,23 @@
       <c r="W77">
         <v>-1.49</v>
       </c>
+      <c r="X77">
+        <v>13.32</v>
+      </c>
+      <c r="Y77">
+        <v>97.95999999999999</v>
+      </c>
+      <c r="Z77">
+        <v>20</v>
+      </c>
       <c r="AC77" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7286,22 +8651,25 @@
       <c r="AG77">
         <v>2.821866512298584</v>
       </c>
-      <c r="AH77" t="s">
-        <v>165</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688372</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>0.25</v>
@@ -7319,7 +8687,7 @@
         <v>60544.12</v>
       </c>
       <c r="J78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K78">
         <v>4</v>
@@ -7360,8 +8728,23 @@
       <c r="W78">
         <v>-0.44</v>
       </c>
+      <c r="X78">
+        <v>-2.59</v>
+      </c>
+      <c r="Y78">
+        <v>83.78</v>
+      </c>
+      <c r="Z78">
+        <v>4.88</v>
+      </c>
       <c r="AC78" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7369,22 +8752,25 @@
       <c r="AG78">
         <v>2.174967050552368</v>
       </c>
-      <c r="AH78" t="s">
-        <v>165</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688489</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-6</v>
@@ -7402,7 +8788,7 @@
         <v>33033.45</v>
       </c>
       <c r="J79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7443,8 +8829,23 @@
       <c r="W79">
         <v>0.75</v>
       </c>
+      <c r="X79">
+        <v>-4.82</v>
+      </c>
+      <c r="Y79">
+        <v>54.52</v>
+      </c>
+      <c r="Z79">
+        <v>-0.51</v>
+      </c>
       <c r="AC79" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7452,22 +8853,25 @@
       <c r="AG79">
         <v>5.702132225036621</v>
       </c>
-      <c r="AH79" t="s">
-        <v>165</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688502</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-5.33</v>
@@ -7485,7 +8889,7 @@
         <v>57842.8</v>
       </c>
       <c r="J80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K80">
         <v>22</v>
@@ -7526,8 +8930,23 @@
       <c r="W80">
         <v>-0.71</v>
       </c>
+      <c r="X80">
+        <v>-2.11</v>
+      </c>
+      <c r="Y80">
+        <v>447.22</v>
+      </c>
+      <c r="Z80">
+        <v>4.74</v>
+      </c>
       <c r="AC80" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7535,22 +8954,25 @@
       <c r="AG80">
         <v>-1.499437212944031</v>
       </c>
-      <c r="AH80" t="s">
-        <v>165</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688521</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-9.33</v>
@@ -7568,7 +8990,7 @@
         <v>443608.27</v>
       </c>
       <c r="J81" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K81">
         <v>5</v>
@@ -7609,8 +9031,23 @@
       <c r="W81">
         <v>-0.28</v>
       </c>
+      <c r="X81">
+        <v>-0.11</v>
+      </c>
+      <c r="Y81">
+        <v>155.95</v>
+      </c>
+      <c r="Z81">
+        <v>8.93</v>
+      </c>
       <c r="AC81" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7618,22 +9055,25 @@
       <c r="AG81">
         <v>-2.069036483764648</v>
       </c>
-      <c r="AH81" t="s">
-        <v>165</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688629</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>2.7</v>
@@ -7651,7 +9091,7 @@
         <v>415203.61</v>
       </c>
       <c r="J82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7692,8 +9132,23 @@
       <c r="W82">
         <v>-2.13</v>
       </c>
+      <c r="X82">
+        <v>-0.64</v>
+      </c>
+      <c r="Y82">
+        <v>84.3</v>
+      </c>
+      <c r="Z82">
+        <v>4.56</v>
+      </c>
       <c r="AC82" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7701,22 +9156,25 @@
       <c r="AG82">
         <v>4.103693962097168</v>
       </c>
-      <c r="AH82" t="s">
-        <v>165</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688652</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-5.54</v>
@@ -7734,7 +9192,7 @@
         <v>53485.2</v>
       </c>
       <c r="J83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -7775,8 +9233,23 @@
       <c r="W83">
         <v>-0.98</v>
       </c>
+      <c r="X83">
+        <v>-0.53</v>
+      </c>
+      <c r="Y83">
+        <v>77.5</v>
+      </c>
+      <c r="Z83">
+        <v>5.07</v>
+      </c>
       <c r="AC83" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7784,22 +9257,25 @@
       <c r="AG83">
         <v>2.952007532119751</v>
       </c>
-      <c r="AH83" t="s">
-        <v>165</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688709</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-5.03</v>
@@ -7817,7 +9293,7 @@
         <v>75605.37</v>
       </c>
       <c r="J84" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K84">
         <v>3</v>
@@ -7858,8 +9334,23 @@
       <c r="W84">
         <v>-0.17</v>
       </c>
+      <c r="X84">
+        <v>-0.09</v>
+      </c>
+      <c r="Y84">
+        <v>48.01</v>
+      </c>
+      <c r="Z84">
+        <v>6.45</v>
+      </c>
       <c r="AC84" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7867,22 +9358,25 @@
       <c r="AG84">
         <v>57.55690383911133</v>
       </c>
-      <c r="AH84" t="s">
-        <v>165</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688798</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>0.06</v>
@@ -7900,7 +9394,7 @@
         <v>67857.33</v>
       </c>
       <c r="J85" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K85">
         <v>5</v>
@@ -7941,8 +9435,23 @@
       <c r="W85">
         <v>-0.27</v>
       </c>
+      <c r="X85">
+        <v>-0.15</v>
+      </c>
+      <c r="Y85">
+        <v>101.9</v>
+      </c>
+      <c r="Z85">
+        <v>6.46</v>
+      </c>
       <c r="AC85" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -7950,8 +9459,11 @@
       <c r="AG85">
         <v>2.222378969192505</v>
       </c>
-      <c r="AH85" t="s">
-        <v>165</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
